--- a/Diagram/morales_santiago_elimarie_UML.xlsx
+++ b/Diagram/morales_santiago_elimarie_UML.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6740" yWindow="0" windowWidth="20220" windowHeight="16680" tabRatio="500"/>
+    <workbookView xWindow="12660" yWindow="0" windowWidth="15080" windowHeight="16680" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$46</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$48</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="107">
   <si>
     <t>name</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Online Store</t>
   </si>
   <si>
-    <t>phone</t>
-  </si>
-  <si>
     <t>Product</t>
   </si>
   <si>
@@ -54,9 +51,6 @@
     <t>Order</t>
   </si>
   <si>
-    <t>quantity</t>
-  </si>
-  <si>
     <t>Shipment</t>
   </si>
   <si>
@@ -69,9 +63,6 @@
     <t>status()</t>
   </si>
   <si>
-    <t>details()</t>
-  </si>
-  <si>
     <t>browse()</t>
   </si>
   <si>
@@ -81,9 +72,6 @@
     <t>availabilty()</t>
   </si>
   <si>
-    <t>track()</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -93,84 +81,15 @@
     <t>amount</t>
   </si>
   <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>display()</t>
-  </si>
-  <si>
-    <t>Materials</t>
-  </si>
-  <si>
-    <t>room</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>total_material()</t>
-  </si>
-  <si>
-    <t>total_labor()</t>
-  </si>
-  <si>
-    <t>Labor</t>
-  </si>
-  <si>
-    <t>rate</t>
-  </si>
-  <si>
-    <t>hours</t>
-  </si>
-  <si>
-    <t>travel_time</t>
-  </si>
-  <si>
-    <t>get_rate()</t>
-  </si>
-  <si>
-    <t>get_hours()</t>
-  </si>
-  <si>
-    <t>get_time()</t>
-  </si>
-  <si>
     <t>Payment</t>
   </si>
   <si>
-    <t>cash</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>debit</t>
-  </si>
-  <si>
-    <t>total_payment()</t>
-  </si>
-  <si>
-    <t>boxes</t>
-  </si>
-  <si>
-    <t>get_balance()</t>
-  </si>
-  <si>
-    <t>Moving  Job</t>
-  </si>
-  <si>
     <t>Movie theater</t>
   </si>
   <si>
-    <t>theater</t>
-  </si>
-  <si>
     <t>get_location()</t>
   </si>
   <si>
-    <t>movie</t>
-  </si>
-  <si>
     <t>title</t>
   </si>
   <si>
@@ -183,64 +102,13 @@
     <t>time()</t>
   </si>
   <si>
-    <t>customer</t>
-  </si>
-  <si>
-    <t>pay()</t>
-  </si>
-  <si>
-    <t>buy_tiket()</t>
-  </si>
-  <si>
-    <t>ticket</t>
-  </si>
-  <si>
     <t>availability</t>
   </si>
   <si>
-    <t>sell()</t>
-  </si>
-  <si>
-    <t>exchange()</t>
-  </si>
-  <si>
-    <t>cancel()</t>
-  </si>
-  <si>
     <t>number</t>
   </si>
   <si>
-    <t>sex</t>
-  </si>
-  <si>
-    <t>Tavel</t>
-  </si>
-  <si>
-    <t>Passenger</t>
-  </si>
-  <si>
-    <t>searh_flight()</t>
-  </si>
-  <si>
-    <t>book_ticket()</t>
-  </si>
-  <si>
     <t>Ticket</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>get_ticket()</t>
-  </si>
-  <si>
-    <t>cancel_ticket()</t>
-  </si>
-  <si>
-    <t>Flight</t>
-  </si>
-  <si>
-    <t>terminal()</t>
   </si>
   <si>
     <t>Elimarie Morales Santiago</t>
@@ -248,6 +116,234 @@
   <si>
     <t>UML Diagram
 Assignment in CLASSES</t>
+  </si>
+  <si>
+    <t>set_value()</t>
+  </si>
+  <si>
+    <t>add_wishlist()</t>
+  </si>
+  <si>
+    <t>quantity()</t>
+  </si>
+  <si>
+    <t>order_details()</t>
+  </si>
+  <si>
+    <t>movie details()</t>
+  </si>
+  <si>
+    <t>events()</t>
+  </si>
+  <si>
+    <t>genre()</t>
+  </si>
+  <si>
+    <t>items()</t>
+  </si>
+  <si>
+    <t>track_number()</t>
+  </si>
+  <si>
+    <t>service_type()</t>
+  </si>
+  <si>
+    <t>delivery_address</t>
+  </si>
+  <si>
+    <t>manufaturer</t>
+  </si>
+  <si>
+    <t>payment</t>
+  </si>
+  <si>
+    <t>number_packages</t>
+  </si>
+  <si>
+    <t>add_ticket()</t>
+  </si>
+  <si>
+    <t>edit_ticket()</t>
+  </si>
+  <si>
+    <t>romove_ticket()</t>
+  </si>
+  <si>
+    <t>payment_type</t>
+  </si>
+  <si>
+    <t>authorize()</t>
+  </si>
+  <si>
+    <t>capture()</t>
+  </si>
+  <si>
+    <t>verify()</t>
+  </si>
+  <si>
+    <t>Theater</t>
+  </si>
+  <si>
+    <t>Movie</t>
+  </si>
+  <si>
+    <t>Library</t>
+  </si>
+  <si>
+    <t>Book</t>
+  </si>
+  <si>
+    <t>book_title</t>
+  </si>
+  <si>
+    <t>author()</t>
+  </si>
+  <si>
+    <t>publisher()</t>
+  </si>
+  <si>
+    <t>search()</t>
+  </si>
+  <si>
+    <t>book_type</t>
+  </si>
+  <si>
+    <t>editions()</t>
+  </si>
+  <si>
+    <t>vendor</t>
+  </si>
+  <si>
+    <t>Vendor</t>
+  </si>
+  <si>
+    <t>book_details</t>
+  </si>
+  <si>
+    <t>book_supply()</t>
+  </si>
+  <si>
+    <t>payment_details()</t>
+  </si>
+  <si>
+    <t>Librarian</t>
+  </si>
+  <si>
+    <t>librarian_name</t>
+  </si>
+  <si>
+    <t>librarian_id</t>
+  </si>
+  <si>
+    <t>search_book()</t>
+  </si>
+  <si>
+    <t>verify_member()</t>
+  </si>
+  <si>
+    <t>issue_book()</t>
+  </si>
+  <si>
+    <t>Customer Record</t>
+  </si>
+  <si>
+    <t>customer_id</t>
+  </si>
+  <si>
+    <t>membership_date</t>
+  </si>
+  <si>
+    <t>book_limit</t>
+  </si>
+  <si>
+    <t>retrieve_member()</t>
+  </si>
+  <si>
+    <t>pay_fine()</t>
+  </si>
+  <si>
+    <t>increase_issued()</t>
+  </si>
+  <si>
+    <t>Online Course</t>
+  </si>
+  <si>
+    <t>Administrator</t>
+  </si>
+  <si>
+    <t>admin_id</t>
+  </si>
+  <si>
+    <t>admin_name</t>
+  </si>
+  <si>
+    <t>manage_course()</t>
+  </si>
+  <si>
+    <t>manage_topic()</t>
+  </si>
+  <si>
+    <t>view_student()</t>
+  </si>
+  <si>
+    <t>course_name</t>
+  </si>
+  <si>
+    <t>course_id</t>
+  </si>
+  <si>
+    <t>view_course()</t>
+  </si>
+  <si>
+    <t>modify_course()</t>
+  </si>
+  <si>
+    <t>remove_course(0</t>
+  </si>
+  <si>
+    <t>create_course()</t>
+  </si>
+  <si>
+    <t>start_date</t>
+  </si>
+  <si>
+    <t>end_day</t>
+  </si>
+  <si>
+    <t>tutor_name</t>
+  </si>
+  <si>
+    <t>view_calendar()</t>
+  </si>
+  <si>
+    <t>modify_calendar()</t>
+  </si>
+  <si>
+    <t>delete_calendar</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>topic_name</t>
+  </si>
+  <si>
+    <t>topic_id</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>view_topic()</t>
+  </si>
+  <si>
+    <t>create_topic()</t>
+  </si>
+  <si>
+    <t>Course</t>
+  </si>
+  <si>
+    <t>Calendar</t>
   </si>
 </sst>
 </file>
@@ -369,7 +465,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -379,6 +475,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -725,10 +824,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I46"/>
+      <selection sqref="A1:I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -757,28 +856,28 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="4"/>
-      <c r="B2" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
+      <c r="B2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9" ht="45" customHeight="1">
       <c r="A3" s="4"/>
-      <c r="B3" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
+      <c r="B3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9">
@@ -794,94 +893,94 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="4"/>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
+      <c r="F5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="4"/>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="4"/>
-      <c r="B7" s="5" t="s">
-        <v>0</v>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="5" t="s">
-        <v>0</v>
+      <c r="D7" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="F7" s="5" t="s">
-        <v>4</v>
+      <c r="F7" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="G7" s="4"/>
-      <c r="H7" s="5" t="s">
-        <v>49</v>
+      <c r="H7" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E8" s="4"/>
-      <c r="F8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="G8" s="4"/>
       <c r="H8" s="5" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="5"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
+      <c r="H9" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="E10" s="4"/>
       <c r="F10" s="5"/>
       <c r="G10" s="4"/>
@@ -890,211 +989,231 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="4"/>
-      <c r="B11" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="B11" s="5"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="7"/>
+      <c r="D11" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="E11" s="4"/>
-      <c r="F11" s="6" t="s">
-        <v>47</v>
-      </c>
+      <c r="F11" s="5"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="6" t="s">
-        <v>52</v>
-      </c>
+      <c r="H11" s="5"/>
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="B12" s="7" t="s">
-        <v>17</v>
-      </c>
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
       <c r="C12" s="4"/>
-      <c r="D12" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="D12" s="5"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="7"/>
+      <c r="F12" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="G12" s="4"/>
-      <c r="H12" s="5" t="s">
-        <v>51</v>
+      <c r="H12" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="4"/>
+      <c r="B13" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="C13" s="4"/>
+      <c r="D13" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="F13" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="G13" s="4"/>
-      <c r="H13" s="7" t="s">
-        <v>15</v>
+      <c r="H13" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="4"/>
-      <c r="B14" s="1" t="s">
-        <v>9</v>
+      <c r="B14" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="C14" s="4"/>
-      <c r="D14" s="1" t="s">
-        <v>11</v>
+      <c r="D14" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="F14" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+      <c r="H14" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="4"/>
-      <c r="B15" s="5" t="s">
-        <v>21</v>
+      <c r="B15" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="C15" s="4"/>
-      <c r="D15" s="5" t="s">
-        <v>23</v>
+      <c r="D15" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="E15" s="4"/>
-      <c r="F15" s="8" t="s">
-        <v>53</v>
-      </c>
+      <c r="F15" s="4"/>
       <c r="G15" s="4"/>
-      <c r="H15" s="8" t="s">
-        <v>56</v>
-      </c>
+      <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4"/>
-      <c r="B16" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="C16" s="4"/>
-      <c r="D16" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="E16" s="4"/>
-      <c r="F16" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="5" t="s">
-        <v>57</v>
-      </c>
+      <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
+      <c r="B17" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="C17" s="4"/>
-      <c r="D17" s="5"/>
+      <c r="D17" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="E17" s="4"/>
-      <c r="F17" s="5" t="s">
-        <v>4</v>
+      <c r="F17" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="G17" s="4"/>
-      <c r="H17" s="5" t="s">
-        <v>61</v>
+      <c r="H17" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="I17" s="4"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
+      <c r="B18" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="C18" s="4"/>
-      <c r="D18" s="5"/>
+      <c r="D18" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="E18" s="4"/>
-      <c r="F18" s="5"/>
+      <c r="F18" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="G18" s="4"/>
       <c r="H18" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I18" s="4"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4"/>
-      <c r="B19" s="6" t="s">
-        <v>14</v>
+      <c r="B19" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="C19" s="4"/>
-      <c r="D19" s="6" t="s">
-        <v>13</v>
+      <c r="D19" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="5"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="5"/>
+      <c r="H19" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="I19" s="4"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="4"/>
-      <c r="B20" s="7" t="s">
-        <v>15</v>
+      <c r="B20" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="C20" s="4"/>
-      <c r="D20" s="7" t="s">
-        <v>19</v>
+      <c r="D20" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="E20" s="4"/>
-      <c r="F20" s="6" t="s">
-        <v>55</v>
-      </c>
+      <c r="F20" s="5"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="6" t="s">
-        <v>58</v>
+      <c r="H20" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="I20" s="4"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
+      <c r="B21" s="5"/>
       <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
+      <c r="D21" s="5"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="5" t="s">
-        <v>54</v>
-      </c>
+      <c r="F21" s="5"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="5" t="s">
-        <v>59</v>
-      </c>
+      <c r="H21" s="5"/>
       <c r="I21" s="4"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
+      <c r="B22" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
+      <c r="D22" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="E22" s="4"/>
-      <c r="F22" s="7"/>
+      <c r="F22" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="G22" s="4"/>
-      <c r="H22" s="7" t="s">
-        <v>60</v>
+      <c r="H22" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="I22" s="4"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
+      <c r="B23" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
+      <c r="D23" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
+      <c r="F23" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
+      <c r="H23" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="I23" s="4"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
+      <c r="B24" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
+      <c r="D24" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
+      <c r="F24" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
+      <c r="H24" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="I24" s="4"/>
     </row>
     <row r="25" spans="1:9">
@@ -1102,6 +1221,7 @@
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -1109,108 +1229,99 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="4"/>
-      <c r="B26" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
+      <c r="B26" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H26" s="4"/>
+      <c r="F26" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
       <c r="I26" s="4"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="4"/>
-      <c r="B27" s="8" t="s">
-        <v>3</v>
-      </c>
       <c r="C27" s="4"/>
-      <c r="D27" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="D27" s="9"/>
       <c r="E27" s="4"/>
-      <c r="F27" s="8" t="s">
-        <v>64</v>
-      </c>
+      <c r="F27" s="4"/>
       <c r="G27" s="4"/>
-      <c r="H27" s="8" t="s">
-        <v>67</v>
-      </c>
+      <c r="H27" s="4"/>
       <c r="I27" s="4"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="4"/>
-      <c r="B28" s="5" t="s">
-        <v>0</v>
+      <c r="B28" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="C28" s="4"/>
-      <c r="D28" s="6" t="s">
-        <v>23</v>
+      <c r="D28" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="E28" s="4"/>
-      <c r="F28" s="5" t="s">
-        <v>0</v>
+      <c r="F28" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="G28" s="4"/>
-      <c r="H28" s="5" t="s">
-        <v>61</v>
+      <c r="H28" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="I28" s="4"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="4"/>
       <c r="B29" s="5" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="C29" s="4"/>
-      <c r="D29" s="5" t="s">
-        <v>31</v>
+      <c r="D29" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="5" t="s">
-        <v>2</v>
+        <v>82</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="5" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="I29" s="4"/>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="4"/>
-      <c r="B30" s="7" t="s">
-        <v>6</v>
+      <c r="B30" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="5" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="5" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="5" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="I30" s="4"/>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="4"/>
-      <c r="B31" s="5"/>
+      <c r="B31" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="C31" s="4"/>
-      <c r="D31" s="5" t="s">
-        <v>33</v>
-      </c>
+      <c r="D31" s="5"/>
       <c r="E31" s="4"/>
-      <c r="F31" s="5" t="s">
-        <v>62</v>
-      </c>
+      <c r="F31" s="5"/>
       <c r="G31" s="4"/>
-      <c r="H31" s="5"/>
+      <c r="H31" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="I31" s="4"/>
     </row>
     <row r="32" spans="1:9">
@@ -1219,155 +1330,153 @@
       <c r="C32" s="4"/>
       <c r="D32" s="5"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="3"/>
+      <c r="F32" s="5"/>
       <c r="G32" s="4"/>
       <c r="H32" s="5"/>
       <c r="I32" s="4"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="4"/>
-      <c r="B33" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="B33" s="5"/>
       <c r="C33" s="4"/>
-      <c r="D33" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="D33" s="5"/>
       <c r="E33" s="4"/>
-      <c r="F33" s="6" t="s">
-        <v>65</v>
-      </c>
+      <c r="F33" s="5"/>
       <c r="G33" s="4"/>
-      <c r="H33" s="6" t="s">
-        <v>69</v>
-      </c>
+      <c r="H33" s="5"/>
       <c r="I33" s="4"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="4"/>
-      <c r="D34" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="D34" s="7"/>
       <c r="E34" s="4"/>
-      <c r="F34" s="5" t="s">
-        <v>66</v>
-      </c>
+      <c r="F34" s="3"/>
       <c r="G34" s="4"/>
-      <c r="H34" s="5" t="s">
-        <v>70</v>
-      </c>
+      <c r="H34" s="3"/>
       <c r="I34" s="4"/>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="4"/>
-      <c r="B35" s="5"/>
+      <c r="B35" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="C35" s="4"/>
       <c r="D35" s="5" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="E35" s="4"/>
-      <c r="F35" s="5"/>
+      <c r="F35" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="G35" s="4"/>
-      <c r="H35" s="5"/>
+      <c r="H35" s="6" t="s">
+        <v>96</v>
+      </c>
       <c r="I35" s="4"/>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="4"/>
-      <c r="B36" s="7"/>
+      <c r="B36" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="C36" s="4"/>
-      <c r="D36" s="7" t="s">
-        <v>36</v>
+      <c r="D36" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="E36" s="4"/>
-      <c r="F36" s="7"/>
+      <c r="F36" s="5" t="s">
+        <v>86</v>
+      </c>
       <c r="G36" s="4"/>
-      <c r="H36" s="7"/>
+      <c r="H36" s="5" t="s">
+        <v>97</v>
+      </c>
       <c r="I36" s="4"/>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
+      <c r="B37" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
+      <c r="D37" s="7" t="s">
+        <v>72</v>
+      </c>
       <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
+      <c r="F37" s="7" t="s">
+        <v>84</v>
+      </c>
       <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
+      <c r="H37" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="I37" s="4"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="4"/>
-      <c r="B38" s="8" t="s">
-        <v>25</v>
-      </c>
+      <c r="B38" s="4"/>
       <c r="C38" s="4"/>
-      <c r="D38" s="8" t="s">
-        <v>37</v>
-      </c>
+      <c r="D38" s="4"/>
       <c r="E38" s="4"/>
-      <c r="F38" s="8" t="s">
-        <v>71</v>
-      </c>
+      <c r="F38" s="4"/>
       <c r="G38" s="4"/>
-      <c r="H38" s="8" t="s">
-        <v>37</v>
-      </c>
+      <c r="H38" s="4"/>
       <c r="I38" s="4"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="4"/>
-      <c r="B39" s="5" t="s">
-        <v>26</v>
+      <c r="B39" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="C39" s="4"/>
-      <c r="D39" s="5" t="s">
-        <v>38</v>
+      <c r="D39" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="E39" s="4"/>
-      <c r="F39" s="5" t="s">
-        <v>61</v>
+      <c r="F39" s="8" t="s">
+        <v>105</v>
       </c>
       <c r="G39" s="4"/>
-      <c r="H39" s="5" t="s">
-        <v>38</v>
+      <c r="H39" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="I39" s="4"/>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="4"/>
       <c r="B40" s="5" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="5" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="5" t="s">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="5" t="s">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="I40" s="4"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="4"/>
-      <c r="B41" s="5" t="s">
-        <v>42</v>
-      </c>
+      <c r="B41" s="5"/>
       <c r="C41" s="4"/>
       <c r="D41" s="5" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="E41" s="4"/>
-      <c r="F41" s="5"/>
+      <c r="F41" s="5" t="s">
+        <v>88</v>
+      </c>
       <c r="G41" s="4"/>
       <c r="H41" s="5" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="I41" s="4"/>
     </row>
@@ -1375,79 +1484,98 @@
       <c r="A42" s="4"/>
       <c r="B42" s="5"/>
       <c r="C42" s="4"/>
-      <c r="D42" s="5"/>
+      <c r="D42" s="5" t="s">
+        <v>76</v>
+      </c>
       <c r="E42" s="4"/>
       <c r="F42" s="5"/>
       <c r="G42" s="4"/>
-      <c r="H42" s="5"/>
+      <c r="H42" s="5" t="s">
+        <v>102</v>
+      </c>
       <c r="I42" s="4"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="4"/>
-      <c r="B43" s="6" t="s">
-        <v>28</v>
-      </c>
+      <c r="B43" s="5"/>
       <c r="C43" s="4"/>
-      <c r="D43" s="6" t="s">
-        <v>41</v>
-      </c>
+      <c r="D43" s="5"/>
       <c r="E43" s="4"/>
-      <c r="F43" s="6" t="s">
-        <v>72</v>
-      </c>
+      <c r="F43" s="5"/>
       <c r="G43" s="4"/>
-      <c r="H43" s="6" t="s">
-        <v>41</v>
-      </c>
+      <c r="H43" s="5"/>
       <c r="I43" s="4"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="4"/>
-      <c r="B44" s="2"/>
-      <c r="D44" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B44" s="5"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="5"/>
       <c r="E44" s="4"/>
-      <c r="F44" s="7"/>
+      <c r="F44" s="6" t="s">
+        <v>89</v>
+      </c>
       <c r="G44" s="4"/>
-      <c r="H44" s="2"/>
+      <c r="H44" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="I44" s="4"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
+      <c r="B45" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
+      <c r="D45" s="6" t="s">
+        <v>77</v>
+      </c>
       <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
+      <c r="F45" s="5" t="s">
+        <v>92</v>
+      </c>
       <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
+      <c r="H45" s="5" t="s">
+        <v>103</v>
+      </c>
       <c r="I45" s="4"/>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
+      <c r="B46" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>78</v>
+      </c>
       <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
+      <c r="F46" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
+      <c r="H46" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="I46" s="4"/>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
+      <c r="B47" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
+      <c r="D47" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
+      <c r="F47" s="7" t="s">
+        <v>91</v>
+      </c>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -1457,22 +1585,62 @@
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:9">
       <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
       <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
       <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B2:H2"/>
+    <mergeCell ref="F26:H26"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="89" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup scale="85" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>
